--- a/Documentação/Planilhas/CUBOS_MIS.xlsx
+++ b/Documentação/Planilhas/CUBOS_MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="731"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="731" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque Sige" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,10 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="146" r:id="rId5"/>
-    <pivotCache cacheId="149" r:id="rId6"/>
-    <pivotCache cacheId="152" r:id="rId7"/>
-    <pivotCache cacheId="155" r:id="rId8"/>
+    <pivotCache cacheId="74" r:id="rId5"/>
+    <pivotCache cacheId="77" r:id="rId6"/>
+    <pivotCache cacheId="80" r:id="rId7"/>
+    <pivotCache cacheId="83" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Rótulos de Linha</t>
   </si>
@@ -138,16 +138,40 @@
     <t>Vl Cmv</t>
   </si>
   <si>
-    <t>Vl_Cobertura</t>
-  </si>
-  <si>
-    <t>vl_cmd</t>
-  </si>
-  <si>
-    <t>Pz_medio</t>
-  </si>
-  <si>
-    <t>Unknown</t>
+    <t>Nr Saldoestoque</t>
+  </si>
+  <si>
+    <t>Nr Saldototalcap</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -200,196 +224,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41941.655576736113" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="4"/>
-  <cacheFields count="4">
-    <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="1">
-        <s v="[Dim Estabelecimento].[Estabelecimento].[All].UNKNOWNMEMBER" c="Unknown"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Vl_Cobertura]" caption="Vl_Cobertura" numFmtId="0" hierarchy="110" level="32767"/>
-    <cacheField name="[Measures].[vl_cmd]" caption="vl_cmd" numFmtId="0" hierarchy="111" level="32767"/>
-    <cacheField name="[Measures].[Pz_medio]" caption="Pz_medio" numFmtId="0" hierarchy="112" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="117">
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Item Elegivel]" caption="Dim Bloqueado.Item Elegivel" defaultMemberUniqueName="[Dim Bloqueado].[Item Elegivel].[All]" allUniqueName="[Dim Bloqueado].[Item Elegivel].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Lista de Casamento]" caption="Dim Bloqueado.Lista de Casamento" defaultMemberUniqueName="[Dim Bloqueado].[Lista de Casamento].[All]" allUniqueName="[Dim Bloqueado].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Listas Ativas]" caption="Dim Bloqueado.Listas Ativas" defaultMemberUniqueName="[Dim Bloqueado].[Listas Ativas].[All]" allUniqueName="[Dim Bloqueado].[Listas Ativas].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Mobile]" caption="Dim Bloqueado.Mobile" defaultMemberUniqueName="[Dim Bloqueado].[Mobile].[All]" allUniqueName="[Dim Bloqueado].[Mobile].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Pre Pagto]" caption="Dim Bloqueado.Pre Pagto" defaultMemberUniqueName="[Dim Bloqueado].[Pre Pagto].[All]" allUniqueName="[Dim Bloqueado].[Pre Pagto].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Produto de Kit]" caption="Dim Bloqueado.Produto de Kit" defaultMemberUniqueName="[Dim Bloqueado].[Produto de Kit].[All]" allUniqueName="[Dim Bloqueado].[Produto de Kit].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Tem Estoque]" caption="Dim Bloqueado.Tem Estoque" defaultMemberUniqueName="[Dim Bloqueado].[Tem Estoque].[All]" allUniqueName="[Dim Bloqueado].[Tem Estoque].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Titulo Bloqueado]" caption="Dim Bloqueado.Titulo Bloqueado" defaultMemberUniqueName="[Dim Bloqueado].[Titulo Bloqueado].[All]" allUniqueName="[Dim Bloqueado].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Data]" caption="Data" time="1" defaultMemberUniqueName="[Dim Date].[Data].[All]" allUniqueName="[Dim Date].[Data].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Data Semana]" caption="Data Semana" time="1" defaultMemberUniqueName="[Dim Date].[Data Semana].[All]" allUniqueName="[Dim Date].[Data Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Estabelecimento]" caption="Estabelecimento" defaultMemberUniqueName="[Dim Estabelecimento].[Estabelecimento].[All]" allUniqueName="[Dim Estabelecimento].[Estabelecimento].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Financiado].[Ds Financiado]" caption="Ds Financiado" attribute="1" defaultMemberUniqueName="[Dim Financiado].[Ds Financiado].[All]" allUniqueName="[Dim Financiado].[Ds Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Financiado].[Financiado]" caption="Financiado" defaultMemberUniqueName="[Dim Financiado].[Financiado].[All]" allUniqueName="[Dim Financiado].[Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Financiado].[Id Financiado]" caption="Id Financiado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Financiado].[Id Financiado].[All]" allUniqueName="[Dim Financiado].[Id Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Item Elegivel]" caption="Dim Pre Pagto.Item Elegivel" defaultMemberUniqueName="[Dim Pre Pagto].[Item Elegivel].[All]" allUniqueName="[Dim Pre Pagto].[Item Elegivel].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Lista de Casamento]" caption="Dim Pre Pagto.Lista de Casamento" defaultMemberUniqueName="[Dim Pre Pagto].[Lista de Casamento].[All]" allUniqueName="[Dim Pre Pagto].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Listas Ativas]" caption="Dim Pre Pagto.Listas Ativas" defaultMemberUniqueName="[Dim Pre Pagto].[Listas Ativas].[All]" allUniqueName="[Dim Pre Pagto].[Listas Ativas].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Mobile]" caption="Dim Pre Pagto.Mobile" defaultMemberUniqueName="[Dim Pre Pagto].[Mobile].[All]" allUniqueName="[Dim Pre Pagto].[Mobile].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Pre Pagto]" caption="Dim Pre Pagto.Pre Pagto" defaultMemberUniqueName="[Dim Pre Pagto].[Pre Pagto].[All]" allUniqueName="[Dim Pre Pagto].[Pre Pagto].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Produto de Kit]" caption="Dim Pre Pagto.Produto de Kit" defaultMemberUniqueName="[Dim Pre Pagto].[Produto de Kit].[All]" allUniqueName="[Dim Pre Pagto].[Produto de Kit].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Tem Estoque]" caption="Dim Pre Pagto.Tem Estoque" defaultMemberUniqueName="[Dim Pre Pagto].[Tem Estoque].[All]" allUniqueName="[Dim Pre Pagto].[Tem Estoque].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Titulo Bloqueado]" caption="Dim Pre Pagto.Titulo Bloqueado" defaultMemberUniqueName="[Dim Pre Pagto].[Titulo Bloqueado].[All]" allUniqueName="[Dim Pre Pagto].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Apelido]" caption="Apelido" attribute="1" defaultMemberUniqueName="[Dim Product].[Apelido].[All]" allUniqueName="[Dim Product].[Apelido].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[Dim Product].[Categoria].[All]" allUniqueName="[Dim Product].[Categoria].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Cor]" caption="Cor" attribute="1" defaultMemberUniqueName="[Dim Product].[Cor].[All]" allUniqueName="[Dim Product].[Cor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Departamento]" caption="Departamento" attribute="1" defaultMemberUniqueName="[Dim Product].[Departamento].[All]" allUniqueName="[Dim Product].[Departamento].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Descrição do Produto]" caption="Descrição do Produto" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição do Produto].[All]" allUniqueName="[Dim Product].[Descrição do Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Descrição Loja]" caption="Descrição Loja" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição Loja].[All]" allUniqueName="[Dim Product].[Descrição Loja].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[É Item Ativo]" caption="É Item Ativo" attribute="1" defaultMemberUniqueName="[Dim Product].[É Item Ativo].[All]" allUniqueName="[Dim Product].[É Item Ativo].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[É Item Ruptura]" caption="É Item Ruptura" attribute="1" defaultMemberUniqueName="[Dim Product].[É Item Ruptura].[All]" allUniqueName="[Dim Product].[É Item Ruptura].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[É Kit WMS]" caption="É Kit WMS" attribute="1" defaultMemberUniqueName="[Dim Product].[É Kit WMS].[All]" allUniqueName="[Dim Product].[É Kit WMS].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[É Suspenso]" caption="É Suspenso" attribute="1" defaultMemberUniqueName="[Dim Product].[É Suspenso].[All]" allUniqueName="[Dim Product].[É Suspenso].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Fabricante]" caption="Fabricante" attribute="1" defaultMemberUniqueName="[Dim Product].[Fabricante].[All]" allUniqueName="[Dim Product].[Fabricante].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Família]" caption="Família" attribute="1" defaultMemberUniqueName="[Dim Product].[Família].[All]" allUniqueName="[Dim Product].[Família].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Fornecedor]" caption="Fornecedor" attribute="1" defaultMemberUniqueName="[Dim Product].[Fornecedor].[All]" allUniqueName="[Dim Product].[Fornecedor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Gêneros de Produto]" caption="Gêneros de Produto" defaultMemberUniqueName="[Dim Product].[Gêneros de Produto].[All]" allUniqueName="[Dim Product].[Gêneros de Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Id Loja]" caption="Id Loja" attribute="1" defaultMemberUniqueName="[Dim Product].[Id Loja].[All]" allUniqueName="[Dim Product].[Id Loja].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Marca]" caption="Marca" attribute="1" defaultMemberUniqueName="[Dim Product].[Marca].[All]" allUniqueName="[Dim Product].[Marca].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Procedência]" caption="Procedência" attribute="1" defaultMemberUniqueName="[Dim Product].[Procedência].[All]" allUniqueName="[Dim Product].[Procedência].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo]" caption="Produto Completo" defaultMemberUniqueName="[Dim Product].[Produto Completo].[All]" allUniqueName="[Dim Product].[Produto Completo].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo - Com Sub Familia]" caption="Produto Completo - Com Sub Familia" defaultMemberUniqueName="[Dim Product].[Produto Completo - Com Sub Familia].[All]" allUniqueName="[Dim Product].[Produto Completo - Com Sub Familia].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo - Textil]" caption="Produto Completo - Textil" defaultMemberUniqueName="[Dim Product].[Produto Completo - Textil].[All]" allUniqueName="[Dim Product].[Produto Completo - Textil].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Produtos]" caption="Produtos" defaultMemberUniqueName="[Dim Product].[Produtos].[All]" allUniqueName="[Dim Product].[Produtos].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Setor]" caption="Setor" attribute="1" defaultMemberUniqueName="[Dim Product].[Setor].[All]" allUniqueName="[Dim Product].[Setor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Dim Product].[SKU].[All]" allUniqueName="[Dim Product].[SKU].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Status ABC]" caption="Status ABC" attribute="1" defaultMemberUniqueName="[Dim Product].[Status ABC].[All]" allUniqueName="[Dim Product].[Status ABC].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Status Sige]" caption="Status Sige" attribute="1" defaultMemberUniqueName="[Dim Product].[Status Sige].[All]" allUniqueName="[Dim Product].[Status Sige].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Sub Família]" caption="Sub Família" attribute="1" defaultMemberUniqueName="[Dim Product].[Sub Família].[All]" allUniqueName="[Dim Product].[Sub Família].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Tamanho]" caption="Tamanho" attribute="1" defaultMemberUniqueName="[Dim Product].[Tamanho].[All]" allUniqueName="[Dim Product].[Tamanho].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Fornecedor]" caption="Fornecedor" defaultMemberUniqueName="[Dim Sige Fornecedor].[Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[UF Fornecedor]" caption="UF Fornecedor" defaultMemberUniqueName="[Dim Sige Fornecedor].[UF Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[UF Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Status Titulo].[Status dos Pedidos]" caption="Status dos Pedidos" defaultMemberUniqueName="[Dim Status Titulo].[Status dos Pedidos].[All]" allUniqueName="[Dim Status Titulo].[Status dos Pedidos].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Item Elegivel]" caption="Dim Tem Estoque.Item Elegivel" defaultMemberUniqueName="[Dim Tem Estoque].[Item Elegivel].[All]" allUniqueName="[Dim Tem Estoque].[Item Elegivel].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Lista de Casamento]" caption="Dim Tem Estoque.Lista de Casamento" defaultMemberUniqueName="[Dim Tem Estoque].[Lista de Casamento].[All]" allUniqueName="[Dim Tem Estoque].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Listas Ativas]" caption="Dim Tem Estoque.Listas Ativas" defaultMemberUniqueName="[Dim Tem Estoque].[Listas Ativas].[All]" allUniqueName="[Dim Tem Estoque].[Listas Ativas].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Mobile]" caption="Dim Tem Estoque.Mobile" defaultMemberUniqueName="[Dim Tem Estoque].[Mobile].[All]" allUniqueName="[Dim Tem Estoque].[Mobile].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Pre Pagto]" caption="Dim Tem Estoque.Pre Pagto" defaultMemberUniqueName="[Dim Tem Estoque].[Pre Pagto].[All]" allUniqueName="[Dim Tem Estoque].[Pre Pagto].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Produto de Kit]" caption="Dim Tem Estoque.Produto de Kit" defaultMemberUniqueName="[Dim Tem Estoque].[Produto de Kit].[All]" allUniqueName="[Dim Tem Estoque].[Produto de Kit].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Tem Estoque]" caption="Dim Tem Estoque.Tem Estoque" defaultMemberUniqueName="[Dim Tem Estoque].[Tem Estoque].[All]" allUniqueName="[Dim Tem Estoque].[Tem Estoque].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Titulo Bloqueado]" caption="Dim Tem Estoque.Titulo Bloqueado" defaultMemberUniqueName="[Dim Tem Estoque].[Titulo Bloqueado].[All]" allUniqueName="[Dim Tem Estoque].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Dim Booleano]" caption="Dim Bloqueado.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Bloqueado].[Dim Booleano].[All]" allUniqueName="[Dim Bloqueado].[Dim Booleano].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Bloqueado].[Ds Booleano]" caption="Dim Bloqueado.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Bloqueado].[Ds Booleano].[All]" allUniqueName="[Dim Bloqueado].[Ds Booleano].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Dim Date]" caption="Dim Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Date].[Dim Date].[All]" allUniqueName="[Dim Date].[Dim Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Ds Dia Semana]" caption="Ds Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Dia Semana].[All]" allUniqueName="[Dim Date].[Ds Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Ds Month]" caption="Ds Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Month].[All]" allUniqueName="[Dim Date].[Ds Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Ds Quarter]" caption="Ds Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Quarter].[All]" allUniqueName="[Dim Date].[Ds Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Dt Date]" caption="Dt Date" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Dt Date].[All]" allUniqueName="[Dim Date].[Dt Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Nr Day]" caption="Nr Day" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Day].[All]" allUniqueName="[Dim Date].[Nr Day].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Nr Dia Semana]" caption="Nr Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Dia Semana].[All]" allUniqueName="[Dim Date].[Nr Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Nr Month]" caption="Nr Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Month].[All]" allUniqueName="[Dim Date].[Nr Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Nr Quarter]" caption="Nr Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Quarter].[All]" allUniqueName="[Dim Date].[Nr Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Date].[Nr Year]" caption="Nr Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Year].[All]" allUniqueName="[Dim Date].[Nr Year].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Dim Estabelecimento]" caption="Dim Estabelecimento" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Dim Estabelecimento].[All]" allUniqueName="[Dim Estabelecimento].[Dim Estabelecimento].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Ds Filial]" caption="Ds Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Ds Filial].[All]" allUniqueName="[Dim Estabelecimento].[Ds Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Nr Cgc Filial]" caption="Nr Cgc Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Nr Cgc Filial].[All]" allUniqueName="[Dim Estabelecimento].[Nr Cgc Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Nr Id Filial]" caption="Nr Id Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Nr Id Filial].[All]" allUniqueName="[Dim Estabelecimento].[Nr Id Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Dim Booleano]" caption="Dim Pre Pagto.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Pre Pagto].[Dim Booleano].[All]" allUniqueName="[Dim Pre Pagto].[Dim Booleano].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Ds Booleano]" caption="Dim Pre Pagto.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Pre Pagto].[Ds Booleano].[All]" allUniqueName="[Dim Pre Pagto].[Ds Booleano].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Descrição Gênero]" caption="Descrição Gênero" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição Gênero].[All]" allUniqueName="[Dim Product].[Descrição Gênero].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Dim Produto]" caption="Dim Produto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Dim Produto].[All]" allUniqueName="[Dim Product].[Dim Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Gênero Produto]" caption="Gênero Produto" attribute="1" defaultMemberUniqueName="[Dim Product].[Gênero Produto].[All]" allUniqueName="[Dim Product].[Gênero Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Apelido]" caption="Apelido" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Apelido].[All]" allUniqueName="[Dim Sige Fornecedor].[Apelido].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor]" caption="Dim Sige Fornecedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Estado]" caption="Estado" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Estado].[All]" allUniqueName="[Dim Sige Fornecedor].[Estado].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Nome Fornecedor]" caption="Nome Fornecedor" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Nome Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Nome Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Status Titulo].[Dim Orders Status]" caption="Dim Orders Status" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Status Titulo].[Dim Orders Status].[All]" allUniqueName="[Dim Status Titulo].[Dim Orders Status].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Status Titulo].[Ds Status]" caption="Ds Status" attribute="1" defaultMemberUniqueName="[Dim Status Titulo].[Ds Status].[All]" allUniqueName="[Dim Status Titulo].[Ds Status].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Dim Booleano]" caption="Dim Tem Estoque.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Tem Estoque].[Dim Booleano].[All]" allUniqueName="[Dim Tem Estoque].[Dim Booleano].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Ds Booleano]" caption="Dim Tem Estoque.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Tem Estoque].[Ds Booleano].[All]" allUniqueName="[Dim Tem Estoque].[Ds Booleano].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Nr Saldoestoque]" caption="Nr Saldoestoque" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Nr Recebidocap]" caption="Nr Recebidocap" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Nr Saldototalcap]" caption="Nr Saldototalcap" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Nr Saldocapestoque]" caption="Nr Saldocapestoque" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Saldoliquidado]" caption="Vl Saldoliquidado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Saldo CAP]" caption="Vl Saldo CAP" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Financiado]" caption="Vl Financiado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo NR]" caption="Prazo NR" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo Titulo]" caption="Prazo Titulo" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Cobertura]" caption="Cobertura" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo Ajustado]" caption="Prazo Ajustado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Saldo CAP Pon]" caption="Vl Saldo CAP Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dias Vencer]" caption="Dias Vencer" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Cobertura Pon]" caption="Cobertura Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dias Vencer Pon]" caption="Dias Vencer Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo NR Pon]" caption="Prazo NR Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo Titulo Pon]" caption="Prazo Titulo Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Cmd Ponderado]" caption="Vl Cmd Ponderado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Saldo Estoque Cmv]" caption="Vl Saldo Estoque Cmv" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Saldo]" caption="Saldo" measure="1" displayFolder="" measureGroup="Vw Financiamento Pedido Aberto" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Saldo_previsao_pedido]" caption="Saldo_previsao_pedido" measure="1" displayFolder="" measureGroup="Vw Financiamento Pedido Aberto" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl_Cobertura]" caption="Vl_Cobertura" measure="1" displayFolder="" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[vl_cmd]" caption="vl_cmd" measure="1" displayFolder="" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Pz_medio]" caption="Pz_medio" measure="1" displayFolder="" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Dias_Vencer]" caption="Dias_Vencer" measure="1" displayFolder="" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo_NR]" caption="Prazo_NR" measure="1" displayFolder="" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Prazo_titulo]" caption="Prazo_titulo" measure="1" displayFolder="" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Vl Cmd]" caption="Vl Cmd" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="10">
-    <dimension name="Dim Bloqueado" uniqueName="[Dim Bloqueado]" caption="Dim Bloqueado"/>
-    <dimension name="Dim Date" uniqueName="[Dim Date]" caption="Dim Date"/>
-    <dimension name="Dim Estabelecimento" uniqueName="[Dim Estabelecimento]" caption="Dim Estabelecimento"/>
-    <dimension name="Dim Financiado" uniqueName="[Dim Financiado]" caption="Dim Financiado"/>
-    <dimension name="Dim Pre Pagto" uniqueName="[Dim Pre Pagto]" caption="Dim Pre Pagto"/>
-    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
-    <dimension name="Dim Sige Fornecedor" uniqueName="[Dim Sige Fornecedor]" caption="Dim Sige Fornecedor"/>
-    <dimension name="Dim Status Titulo" uniqueName="[Dim Status Titulo]" caption="Dim Status Titulo"/>
-    <dimension name="Dim Tem Estoque" uniqueName="[Dim Tem Estoque]" caption="Dim Tem Estoque"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Vw Financiamento Pedido Aberto" caption="Vw Financiamento Pedido Aberto"/>
-    <measureGroup name="Vw Inventory Supply" caption="Vw Inventory Supply"/>
-  </measureGroups>
-  <maps count="18">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="4"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="8"/>
-  </maps>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41941.65560046296" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41942.594222916669" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="7">
     <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" level="1">
@@ -530,8 +365,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41941.655623495368" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41942.594230092589" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="7">
     <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" hierarchy="2" level="1">
@@ -688,8 +523,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41941.655646064813" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41942.59423865741" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" hierarchy="4" level="1">
@@ -867,8 +702,184 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="rosana.prignolato" refreshedDate="41942.59425451389" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="5"/>
+  <cacheFields count="3">
+    <cacheField name="[Dim Estabelecimento].[Estabelecimento].[Filial]" caption="Filial" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="3">
+        <s v="[Dim Estabelecimento].[Estabelecimento].[Filial].&amp;[2]" c="2"/>
+        <s v="[Dim Estabelecimento].[Estabelecimento].[Filial].&amp;[4]" c="4"/>
+        <s v="[Dim Estabelecimento].[Estabelecimento].[Filial].&amp;[6]" c="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Nr Saldoestoque]" caption="Nr Saldoestoque" numFmtId="0" hierarchy="89" level="32767"/>
+    <cacheField name="[Measures].[Nr Saldototalcap]" caption="Nr Saldototalcap" numFmtId="0" hierarchy="91" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="117">
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Titulo Bloqueado]" caption="Dim Bloqueado.Titulo Bloqueado" defaultMemberUniqueName="[Dim Bloqueado].[Titulo Bloqueado].[All]" allUniqueName="[Dim Bloqueado].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Data]" caption="Data" time="1" defaultMemberUniqueName="[Dim Date].[Data].[All]" allUniqueName="[Dim Date].[Data].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Estabelecimento]" caption="Estabelecimento" defaultMemberUniqueName="[Dim Estabelecimento].[Estabelecimento].[All]" allUniqueName="[Dim Estabelecimento].[Estabelecimento].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Financiado].[Financiado]" caption="Financiado" defaultMemberUniqueName="[Dim Financiado].[Financiado].[All]" allUniqueName="[Dim Financiado].[Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Pre Pagto]" caption="Dim Pre Pagto.Pre Pagto" defaultMemberUniqueName="[Dim Pre Pagto].[Pre Pagto].[All]" allUniqueName="[Dim Pre Pagto].[Pre Pagto].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Apelido]" caption="Apelido" attribute="1" defaultMemberUniqueName="[Dim Product].[Apelido].[All]" allUniqueName="[Dim Product].[Apelido].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Cor]" caption="Cor" attribute="1" defaultMemberUniqueName="[Dim Product].[Cor].[All]" allUniqueName="[Dim Product].[Cor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[É Kit WMS]" caption="É Kit WMS" attribute="1" defaultMemberUniqueName="[Dim Product].[É Kit WMS].[All]" allUniqueName="[Dim Product].[É Kit WMS].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[É Suspenso]" caption="É Suspenso" attribute="1" defaultMemberUniqueName="[Dim Product].[É Suspenso].[All]" allUniqueName="[Dim Product].[É Suspenso].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Fabricante]" caption="Fabricante" attribute="1" defaultMemberUniqueName="[Dim Product].[Fabricante].[All]" allUniqueName="[Dim Product].[Fabricante].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Fornecedor]" caption="Fornecedor" attribute="1" defaultMemberUniqueName="[Dim Product].[Fornecedor].[All]" allUniqueName="[Dim Product].[Fornecedor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Marca]" caption="Marca" attribute="1" defaultMemberUniqueName="[Dim Product].[Marca].[All]" allUniqueName="[Dim Product].[Marca].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Procedência]" caption="Procedência" attribute="1" defaultMemberUniqueName="[Dim Product].[Procedência].[All]" allUniqueName="[Dim Product].[Procedência].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo]" caption="Produto Completo" defaultMemberUniqueName="[Dim Product].[Produto Completo].[All]" allUniqueName="[Dim Product].[Produto Completo].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo - Com Sub Familia]" caption="Produto Completo - Com Sub Familia" defaultMemberUniqueName="[Dim Product].[Produto Completo - Com Sub Familia].[All]" allUniqueName="[Dim Product].[Produto Completo - Com Sub Familia].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Status ABC]" caption="Status ABC" attribute="1" defaultMemberUniqueName="[Dim Product].[Status ABC].[All]" allUniqueName="[Dim Product].[Status ABC].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Status Sige]" caption="Status Sige" attribute="1" defaultMemberUniqueName="[Dim Product].[Status Sige].[All]" allUniqueName="[Dim Product].[Status Sige].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Tamanho]" caption="Tamanho" attribute="1" defaultMemberUniqueName="[Dim Product].[Tamanho].[All]" allUniqueName="[Dim Product].[Tamanho].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Fornecedor]" caption="Fornecedor" defaultMemberUniqueName="[Dim Sige Fornecedor].[Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Status Titulo].[Status dos Pedidos]" caption="Status dos Pedidos" defaultMemberUniqueName="[Dim Status Titulo].[Status dos Pedidos].[All]" allUniqueName="[Dim Status Titulo].[Status dos Pedidos].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Tem Estoque]" caption="Dim Tem Estoque.Tem Estoque" defaultMemberUniqueName="[Dim Tem Estoque].[Tem Estoque].[All]" allUniqueName="[Dim Tem Estoque].[Tem Estoque].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Dim Booleano]" caption="Dim Bloqueado.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Bloqueado].[Dim Booleano].[All]" allUniqueName="[Dim Bloqueado].[Dim Booleano].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Ds Booleano]" caption="Dim Bloqueado.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Bloqueado].[Ds Booleano].[All]" allUniqueName="[Dim Bloqueado].[Ds Booleano].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Item Elegivel]" caption="Dim Bloqueado.Item Elegivel" defaultMemberUniqueName="[Dim Bloqueado].[Item Elegivel].[All]" allUniqueName="[Dim Bloqueado].[Item Elegivel].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Lista de Casamento]" caption="Dim Bloqueado.Lista de Casamento" defaultMemberUniqueName="[Dim Bloqueado].[Lista de Casamento].[All]" allUniqueName="[Dim Bloqueado].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Listas Ativas]" caption="Dim Bloqueado.Listas Ativas" defaultMemberUniqueName="[Dim Bloqueado].[Listas Ativas].[All]" allUniqueName="[Dim Bloqueado].[Listas Ativas].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Mobile]" caption="Dim Bloqueado.Mobile" defaultMemberUniqueName="[Dim Bloqueado].[Mobile].[All]" allUniqueName="[Dim Bloqueado].[Mobile].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Pre Pagto]" caption="Dim Bloqueado.Pre Pagto" defaultMemberUniqueName="[Dim Bloqueado].[Pre Pagto].[All]" allUniqueName="[Dim Bloqueado].[Pre Pagto].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Produto de Kit]" caption="Dim Bloqueado.Produto de Kit" defaultMemberUniqueName="[Dim Bloqueado].[Produto de Kit].[All]" allUniqueName="[Dim Bloqueado].[Produto de Kit].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Bloqueado].[Tem Estoque]" caption="Dim Bloqueado.Tem Estoque" defaultMemberUniqueName="[Dim Bloqueado].[Tem Estoque].[All]" allUniqueName="[Dim Bloqueado].[Tem Estoque].[All]" dimensionUniqueName="[Dim Bloqueado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Data Semana]" caption="Data Semana" time="1" defaultMemberUniqueName="[Dim Date].[Data Semana].[All]" allUniqueName="[Dim Date].[Data Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Dim Date]" caption="Dim Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Dim Date].[Dim Date].[All]" allUniqueName="[Dim Date].[Dim Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Dia Semana]" caption="Ds Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Dia Semana].[All]" allUniqueName="[Dim Date].[Ds Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Month]" caption="Ds Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Month].[All]" allUniqueName="[Dim Date].[Ds Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Ds Quarter]" caption="Ds Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Ds Quarter].[All]" allUniqueName="[Dim Date].[Ds Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Dt Date]" caption="Dt Date" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Dt Date].[All]" allUniqueName="[Dim Date].[Dt Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Day]" caption="Nr Day" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Day].[All]" allUniqueName="[Dim Date].[Nr Day].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Dia Semana]" caption="Nr Dia Semana" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Dia Semana].[All]" allUniqueName="[Dim Date].[Nr Dia Semana].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Month]" caption="Nr Month" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Month].[All]" allUniqueName="[Dim Date].[Nr Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Quarter]" caption="Nr Quarter" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Quarter].[All]" allUniqueName="[Dim Date].[Nr Quarter].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Date].[Nr Year]" caption="Nr Year" attribute="1" time="1" defaultMemberUniqueName="[Dim Date].[Nr Year].[All]" allUniqueName="[Dim Date].[Nr Year].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Dim Estabelecimento]" caption="Dim Estabelecimento" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Dim Estabelecimento].[All]" allUniqueName="[Dim Estabelecimento].[Dim Estabelecimento].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Ds Filial]" caption="Ds Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Ds Filial].[All]" allUniqueName="[Dim Estabelecimento].[Ds Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Nr Cgc Filial]" caption="Nr Cgc Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Nr Cgc Filial].[All]" allUniqueName="[Dim Estabelecimento].[Nr Cgc Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Estabelecimento].[Nr Id Filial]" caption="Nr Id Filial" attribute="1" defaultMemberUniqueName="[Dim Estabelecimento].[Nr Id Filial].[All]" allUniqueName="[Dim Estabelecimento].[Nr Id Filial].[All]" dimensionUniqueName="[Dim Estabelecimento]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Financiado].[Ds Financiado]" caption="Ds Financiado" attribute="1" defaultMemberUniqueName="[Dim Financiado].[Ds Financiado].[All]" allUniqueName="[Dim Financiado].[Ds Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Financiado].[Id Financiado]" caption="Id Financiado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Financiado].[Id Financiado].[All]" allUniqueName="[Dim Financiado].[Id Financiado].[All]" dimensionUniqueName="[Dim Financiado]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Dim Booleano]" caption="Dim Pre Pagto.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Pre Pagto].[Dim Booleano].[All]" allUniqueName="[Dim Pre Pagto].[Dim Booleano].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Ds Booleano]" caption="Dim Pre Pagto.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Pre Pagto].[Ds Booleano].[All]" allUniqueName="[Dim Pre Pagto].[Ds Booleano].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Item Elegivel]" caption="Dim Pre Pagto.Item Elegivel" defaultMemberUniqueName="[Dim Pre Pagto].[Item Elegivel].[All]" allUniqueName="[Dim Pre Pagto].[Item Elegivel].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Lista de Casamento]" caption="Dim Pre Pagto.Lista de Casamento" defaultMemberUniqueName="[Dim Pre Pagto].[Lista de Casamento].[All]" allUniqueName="[Dim Pre Pagto].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Listas Ativas]" caption="Dim Pre Pagto.Listas Ativas" defaultMemberUniqueName="[Dim Pre Pagto].[Listas Ativas].[All]" allUniqueName="[Dim Pre Pagto].[Listas Ativas].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Mobile]" caption="Dim Pre Pagto.Mobile" defaultMemberUniqueName="[Dim Pre Pagto].[Mobile].[All]" allUniqueName="[Dim Pre Pagto].[Mobile].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Produto de Kit]" caption="Dim Pre Pagto.Produto de Kit" defaultMemberUniqueName="[Dim Pre Pagto].[Produto de Kit].[All]" allUniqueName="[Dim Pre Pagto].[Produto de Kit].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Tem Estoque]" caption="Dim Pre Pagto.Tem Estoque" defaultMemberUniqueName="[Dim Pre Pagto].[Tem Estoque].[All]" allUniqueName="[Dim Pre Pagto].[Tem Estoque].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Pre Pagto].[Titulo Bloqueado]" caption="Dim Pre Pagto.Titulo Bloqueado" defaultMemberUniqueName="[Dim Pre Pagto].[Titulo Bloqueado].[All]" allUniqueName="[Dim Pre Pagto].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Pre Pagto]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[Dim Product].[Categoria].[All]" allUniqueName="[Dim Product].[Categoria].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Departamento]" caption="Departamento" attribute="1" defaultMemberUniqueName="[Dim Product].[Departamento].[All]" allUniqueName="[Dim Product].[Departamento].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Descrição do Produto]" caption="Descrição do Produto" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição do Produto].[All]" allUniqueName="[Dim Product].[Descrição do Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Descrição Gênero]" caption="Descrição Gênero" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição Gênero].[All]" allUniqueName="[Dim Product].[Descrição Gênero].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Descrição Loja]" caption="Descrição Loja" attribute="1" defaultMemberUniqueName="[Dim Product].[Descrição Loja].[All]" allUniqueName="[Dim Product].[Descrição Loja].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Dim Produto]" caption="Dim Produto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Dim Produto].[All]" allUniqueName="[Dim Product].[Dim Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[É Item Ativo]" caption="É Item Ativo" attribute="1" defaultMemberUniqueName="[Dim Product].[É Item Ativo].[All]" allUniqueName="[Dim Product].[É Item Ativo].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[É Item Ruptura]" caption="É Item Ruptura" attribute="1" defaultMemberUniqueName="[Dim Product].[É Item Ruptura].[All]" allUniqueName="[Dim Product].[É Item Ruptura].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Família]" caption="Família" attribute="1" defaultMemberUniqueName="[Dim Product].[Família].[All]" allUniqueName="[Dim Product].[Família].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Gênero Produto]" caption="Gênero Produto" attribute="1" defaultMemberUniqueName="[Dim Product].[Gênero Produto].[All]" allUniqueName="[Dim Product].[Gênero Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Gêneros de Produto]" caption="Gêneros de Produto" defaultMemberUniqueName="[Dim Product].[Gêneros de Produto].[All]" allUniqueName="[Dim Product].[Gêneros de Produto].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Id Loja]" caption="Id Loja" attribute="1" defaultMemberUniqueName="[Dim Product].[Id Loja].[All]" allUniqueName="[Dim Product].[Id Loja].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Produto Completo - Textil]" caption="Produto Completo - Textil" defaultMemberUniqueName="[Dim Product].[Produto Completo - Textil].[All]" allUniqueName="[Dim Product].[Produto Completo - Textil].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Produtos]" caption="Produtos" defaultMemberUniqueName="[Dim Product].[Produtos].[All]" allUniqueName="[Dim Product].[Produtos].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Setor]" caption="Setor" attribute="1" defaultMemberUniqueName="[Dim Product].[Setor].[All]" allUniqueName="[Dim Product].[Setor].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Dim Product].[SKU].[All]" allUniqueName="[Dim Product].[SKU].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Sub Família]" caption="Sub Família" attribute="1" defaultMemberUniqueName="[Dim Product].[Sub Família].[All]" allUniqueName="[Dim Product].[Sub Família].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Apelido]" caption="Apelido" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Apelido].[All]" allUniqueName="[Dim Sige Fornecedor].[Apelido].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor]" caption="Dim Sige Fornecedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Dim Sige Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Estado]" caption="Estado" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Estado].[All]" allUniqueName="[Dim Sige Fornecedor].[Estado].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[Nome Fornecedor]" caption="Nome Fornecedor" attribute="1" defaultMemberUniqueName="[Dim Sige Fornecedor].[Nome Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[Nome Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Sige Fornecedor].[UF Fornecedor]" caption="UF Fornecedor" defaultMemberUniqueName="[Dim Sige Fornecedor].[UF Fornecedor].[All]" allUniqueName="[Dim Sige Fornecedor].[UF Fornecedor].[All]" dimensionUniqueName="[Dim Sige Fornecedor]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Status Titulo].[Dim Orders Status]" caption="Dim Orders Status" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Status Titulo].[Dim Orders Status].[All]" allUniqueName="[Dim Status Titulo].[Dim Orders Status].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Status Titulo].[Ds Status]" caption="Ds Status" attribute="1" defaultMemberUniqueName="[Dim Status Titulo].[Ds Status].[All]" allUniqueName="[Dim Status Titulo].[Ds Status].[All]" dimensionUniqueName="[Dim Status Titulo]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Dim Booleano]" caption="Dim Tem Estoque.Dim Booleano" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Tem Estoque].[Dim Booleano].[All]" allUniqueName="[Dim Tem Estoque].[Dim Booleano].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Ds Booleano]" caption="Dim Tem Estoque.Ds Booleano" attribute="1" defaultMemberUniqueName="[Dim Tem Estoque].[Ds Booleano].[All]" allUniqueName="[Dim Tem Estoque].[Ds Booleano].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Item Elegivel]" caption="Dim Tem Estoque.Item Elegivel" defaultMemberUniqueName="[Dim Tem Estoque].[Item Elegivel].[All]" allUniqueName="[Dim Tem Estoque].[Item Elegivel].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Lista de Casamento]" caption="Dim Tem Estoque.Lista de Casamento" defaultMemberUniqueName="[Dim Tem Estoque].[Lista de Casamento].[All]" allUniqueName="[Dim Tem Estoque].[Lista de Casamento].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Listas Ativas]" caption="Dim Tem Estoque.Listas Ativas" defaultMemberUniqueName="[Dim Tem Estoque].[Listas Ativas].[All]" allUniqueName="[Dim Tem Estoque].[Listas Ativas].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Mobile]" caption="Dim Tem Estoque.Mobile" defaultMemberUniqueName="[Dim Tem Estoque].[Mobile].[All]" allUniqueName="[Dim Tem Estoque].[Mobile].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Pre Pagto]" caption="Dim Tem Estoque.Pre Pagto" defaultMemberUniqueName="[Dim Tem Estoque].[Pre Pagto].[All]" allUniqueName="[Dim Tem Estoque].[Pre Pagto].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Produto de Kit]" caption="Dim Tem Estoque.Produto de Kit" defaultMemberUniqueName="[Dim Tem Estoque].[Produto de Kit].[All]" allUniqueName="[Dim Tem Estoque].[Produto de Kit].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Dim Tem Estoque].[Titulo Bloqueado]" caption="Dim Tem Estoque.Titulo Bloqueado" defaultMemberUniqueName="[Dim Tem Estoque].[Titulo Bloqueado].[All]" allUniqueName="[Dim Tem Estoque].[Titulo Bloqueado].[All]" dimensionUniqueName="[Dim Tem Estoque]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Nr Saldoestoque]" caption="Nr Saldoestoque" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nr Recebidocap]" caption="Nr Recebidocap" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Nr Saldototalcap]" caption="Nr Saldototalcap" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nr Saldocapestoque]" caption="Nr Saldocapestoque" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Saldoliquidado]" caption="Vl Saldoliquidado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Saldo CAP]" caption="Vl Saldo CAP" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Financiado]" caption="Vl Financiado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Saldo Estoque Cmv]" caption="Vl Saldo Estoque Cmv" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Saldo_previsao_pedido]" caption="Saldo_previsao_pedido" measure="1" displayFolder="" measureGroup="Vw Financiamento Pedido Aberto" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl_Cobertura]" caption="Vl_Cobertura" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[vl_cmd]" caption="vl_cmd" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Pz_medio]" caption="Pz_medio" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dias_Vencer]" caption="Dias_Vencer" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo_NR]" caption="Prazo_NR" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo_titulo]" caption="Prazo_titulo" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo NR]" caption="Prazo NR" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo Titulo]" caption="Prazo Titulo" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Cmd]" caption="Vl Cmd" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Cobertura]" caption="Cobertura" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo Ajustado]" caption="Prazo Ajustado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Saldo CAP Pon]" caption="Vl Saldo CAP Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Dias Vencer]" caption="Dias Vencer" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Cobertura Pon]" caption="Cobertura Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Dias Vencer Pon]" caption="Dias Vencer Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo NR Pon]" caption="Prazo NR Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Prazo Titulo Pon]" caption="Prazo Titulo Pon" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Vl Cmd Ponderado]" caption="Vl Cmd Ponderado" measure="1" displayFolder="" measureGroup="Vw Inventory Supply" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Saldo]" caption="Saldo" measure="1" displayFolder="" measureGroup="Vw Financiamento Pedido Aberto" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="10">
+    <dimension name="Dim Bloqueado" uniqueName="[Dim Bloqueado]" caption="Dim Bloqueado"/>
+    <dimension name="Dim Date" uniqueName="[Dim Date]" caption="Dim Date"/>
+    <dimension name="Dim Estabelecimento" uniqueName="[Dim Estabelecimento]" caption="Dim Estabelecimento"/>
+    <dimension name="Dim Financiado" uniqueName="[Dim Financiado]" caption="Dim Financiado"/>
+    <dimension name="Dim Pre Pagto" uniqueName="[Dim Pre Pagto]" caption="Dim Pre Pagto"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension name="Dim Sige Fornecedor" uniqueName="[Dim Sige Fornecedor]" caption="Dim Sige Fornecedor"/>
+    <dimension name="Dim Status Titulo" uniqueName="[Dim Status Titulo]" caption="Dim Status Titulo"/>
+    <dimension name="Dim Tem Estoque" uniqueName="[Dim Tem Estoque]" caption="Dim Tem Estoque"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Vw Inventory Supply" caption="Vw Inventory Supply"/>
+  </measureGroups>
+  <maps count="9">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+  </maps>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="149" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -1007,8 +1018,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:E3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="10">
@@ -1032,7 +1043,34 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1183,8 +1221,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:G3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="6">
@@ -1206,7 +1244,22 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1338,25 +1391,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="146" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:D4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="2">
+      <items count="4">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1365,21 +1425,17 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="2">
     <dataField fld="1" baseField="0" baseItem="0"/>
     <dataField fld="2" baseField="0" baseItem="0"/>
-    <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="117">
     <pivotHierarchy/>
@@ -1502,7 +1558,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -1797,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1933,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1972,19 +2028,172 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3">
+        <v>160</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>129494.39999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>809850</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>188864606.21500039</v>
+      </c>
+      <c r="E4" s="3">
+        <v>80830955.784999937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20356</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3491162.2799999993</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2198</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>299834</v>
+      </c>
+      <c r="E6" s="3">
+        <v>216268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>26570</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3">
+        <v>13560</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4036529.54</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1655380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>137784</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15000250.328999992</v>
+      </c>
+      <c r="E9" s="3">
+        <v>546464.56000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>413</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>202672.48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8568</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2523865.2399999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B12" s="3">
         <v>992910</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>215193248.76570079</v>
-      </c>
-      <c r="E3" s="3">
-        <v>83390425.692199975</v>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>214574984.48400038</v>
+      </c>
+      <c r="E12" s="3">
+        <v>83450023.344999939</v>
       </c>
     </row>
   </sheetData>
@@ -1994,9 +2203,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2039,25 +2250,140 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>392906</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-257.39999999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>177796.91000000006</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43276854.710000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3130820.7500000023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2853</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>269301.59999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>18018.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>197.17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1732438.51</v>
+      </c>
+      <c r="G5" s="3">
+        <v>146770.61000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>80799</v>
+      </c>
+      <c r="C6" s="3">
+        <v>95086.65</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-360</v>
+      </c>
+      <c r="E6" s="3">
+        <v>39133.800000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>564594.39000000013</v>
+      </c>
+      <c r="G6" s="3">
+        <v>35865.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4332</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1282195.6100000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>69629.240000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>472994</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B8" s="3">
+        <v>485015</v>
+      </c>
+      <c r="C8" s="3">
         <v>95086.65</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D8" s="3">
         <v>-617.4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E8" s="3">
         <v>217127.88000000009</v>
       </c>
-      <c r="F3" s="3">
-        <v>46828806.899999976</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3394188.9600000032</v>
+      <c r="F8" s="3">
+        <v>47125384.819999978</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3401104.3500000034</v>
       </c>
     </row>
   </sheetData>
@@ -2067,26 +2393,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,36 +2422,49 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>8573</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2186370.3600000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
-        <v>581.29241868450208</v>
-      </c>
-      <c r="C3" s="3">
-        <v>17.430125827082509</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-685.77793370835604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>147.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1554</v>
+      </c>
+      <c r="C5" s="3">
+        <v>289419.90000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>581.29241868450208</v>
-      </c>
-      <c r="C4" s="3">
-        <v>17.430125827082509</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-685.77793370835604</v>
+      <c r="B6" s="3">
+        <v>10132</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2475937.5600000005</v>
       </c>
     </row>
   </sheetData>
